--- a/HLS_man/COP21/COP21_man_eu.xlsx
+++ b/HLS_man/COP21/COP21_man_eu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE825DFF-70FD-4249-B8F3-E89D12174225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37769370-B78A-4C8F-B7E3-7A3A3A041869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>COP21_eu</t>
   </si>
@@ -218,9 +218,6 @@
     <t>present</t>
   </si>
   <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
     <t>new UNFCCC policy, moral responsiblity</t>
   </si>
   <si>
@@ -236,18 +233,9 @@
     <t xml:space="preserve">Every country should contribute and with the same direction. This indicates an egalitarian view. </t>
   </si>
   <si>
-    <t>new UNFCCC policy, mitigation</t>
-  </si>
-  <si>
-    <t>distant future</t>
-  </si>
-  <si>
     <t>new UNFCCC policy, adaptation</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
     <t>prioritarian</t>
   </si>
   <si>
@@ -257,13 +245,28 @@
     <t>emissions, measures</t>
   </si>
   <si>
-    <t>Reduce emissions whilst helping the most vulnerable (prioritarian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calls for  a global goal for emission reduction. The mentioning of an operational target in line with science refers to the sufficientarian idea </t>
-  </si>
-  <si>
-    <t>mentioning of a legally binding agreement, which refers to establishing a specific limit to which all countries should adhere.</t>
+    <t xml:space="preserve">Outlining objective, focussing on fairness. </t>
+  </si>
+  <si>
+    <t>moral responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicating the value of shared responsibility. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduce emissions whilst helping the most vulnerable. </t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement on the need to take on action with for the benefit of all. </t>
+  </si>
+  <si>
+    <t>moral responsibility, new UNFCCC policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicating the value of shared ambition to take on the deal. </t>
   </si>
 </sst>
 </file>
@@ -635,16 +638,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -693,13 +696,13 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -707,7 +710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -715,7 +718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -723,7 +726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -731,7 +734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -739,7 +742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -747,15 +750,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -763,67 +784,85 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
       <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -831,7 +870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -839,7 +878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -847,7 +886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -855,7 +894,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -863,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -871,7 +910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -879,25 +918,25 @@
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -905,15 +944,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -921,7 +978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -932,22 +989,22 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -955,7 +1012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -963,7 +1020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -971,7 +1028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -979,7 +1036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -987,7 +1044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -995,7 +1052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>

--- a/HLS_man/COP21/COP21_man_eu.xlsx
+++ b/HLS_man/COP21/COP21_man_eu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37769370-B78A-4C8F-B7E3-7A3A3A041869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A6A327-5BA1-45B7-8A8C-BD2C2DC824D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>COP21_eu</t>
   </si>
@@ -47,19 +47,10 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Principle</t>
   </si>
   <si>
     <t>30 word explanation</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>The European Union came to Paris with a very clear objective: to
@@ -184,16 +175,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Let us get the job done. Together. </t>
   </si>
   <si>
@@ -209,51 +190,21 @@
     <t>new UNFCCC policy</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>gobal</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, moral responsiblity</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t xml:space="preserve">Every country should contribute and with the same direction. This indicates an egalitarian view. </t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, adaptation</t>
-  </si>
-  <si>
     <t>prioritarian</t>
   </si>
   <si>
     <t xml:space="preserve">To help the most vulnerable countries adapt to climate impacts is an example of prioritizing/helping the worst off. </t>
   </si>
   <si>
-    <t>emissions, measures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outlining objective, focussing on fairness. </t>
-  </si>
-  <si>
     <t>moral responsibility</t>
   </si>
   <si>
-    <t xml:space="preserve">Indicating the value of shared responsibility. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Reduce emissions whilst helping the most vulnerable. </t>
   </si>
   <si>
@@ -263,10 +214,40 @@
     <t xml:space="preserve">Moral judgement on the need to take on action with for the benefit of all. </t>
   </si>
   <si>
-    <t>moral responsibility, new UNFCCC policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicating the value of shared ambition to take on the deal. </t>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every country should contribute what they can, indicating accouting for difference between these countries.  This indicates an egalitarian view. </t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equality based distribution that is shared by all, motivated by an outcome, making it utilitarian. </t>
+  </si>
+  <si>
+    <t>adaptation</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>support mechanism</t>
   </si>
 </sst>
 </file>
@@ -636,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +628,7 @@
     <col min="1" max="1" width="36.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,400 +642,338 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
       <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+      <c r="B20">
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
+      <c r="E22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
+      <c r="B30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
